--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,194 +421,109 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Transmission Application Engineer</v>
+        <v>Entry Level Front End Developer</v>
       </c>
       <c r="B2" t="str">
-        <v>Marmon Utility LLC</v>
+        <v>Revature</v>
       </c>
       <c r="C2" t="str">
-        <v>Milford, NH (On-site) Reposted  9 hours ago</v>
+        <v>Brockton, MA On-site 2 hours ago</v>
       </c>
       <c r="D2" t="str">
-        <v>0 applicants</v>
+        <v>11 applicants</v>
       </c>
       <c r="E2" t="str">
-        <v>https://marmon.wd5.myworkdayjobs.com/Marmon_Careers/job/53-Old-Wilton-Road-Milford-NH/Transmission-Application-Engineer_JR0000015994?source=Linkedin</v>
+        <v>https://revature.com/jobs/entry-level-software-engineer-3/?utm_source=linkedin&amp;sourcedBy=BalaLP</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Store Associate, FT</v>
+        <v>Front End Developer - Freelance [Remote]</v>
       </c>
       <c r="B3" t="str">
-        <v>Nike</v>
+        <v>Braintrust</v>
       </c>
       <c r="C3" t="str">
-        <v>Merrimack, NH Reposted  2 hours ago</v>
+        <v>Boston, MA Remote 1 day ago</v>
       </c>
       <c r="D3" t="str">
-        <v>0 applicants</v>
+        <v>112 applicants</v>
       </c>
       <c r="E3" t="str">
-        <v>https://jobs.nike.com/?jobSearch=true&amp;jsOffset=0&amp;jsSort=posting_start_date&amp;jsLanguage=en&amp;error=jobPost</v>
+        <v>https://boards.greenhouse.io/braintrust</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Store Crew (Associates)</v>
+        <v>Front End Engineer</v>
       </c>
       <c r="B4" t="str">
-        <v>Speedway LLC</v>
+        <v>GavinHeath</v>
       </c>
       <c r="C4" t="str">
-        <v>Concord, NH (On-site) Reposted  9 hours ago</v>
+        <v>United States Remote 2 hours ago</v>
       </c>
       <c r="D4" t="str">
-        <v>0 applicants</v>
+        <v>70 applicants</v>
       </c>
       <c r="E4" t="str">
-        <v>https://speedway.wd1.myworkdayjobs.com/Speedway_External_Career_Site/job/Store-1961-Concord-NH/Store-Crew_R-460</v>
+        <v>https://www1.jobdiva.com/portal/?a=k1jdnw97y2ba69mixpqijkgh9633e3075ay54ctusnobplysx8gv35gw2tu44062&amp;jobid=24432843#/jobs/24432843?compid=0&amp;SearchString=&amp;StatesString=&amp;id=24432843&amp;source=linkedin.com</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>PT Center Store Associate Days and Weekend Availability</v>
+        <v>Front-End Developer</v>
       </c>
       <c r="B5" t="str">
-        <v>Hannaford Supermarkets</v>
+        <v>TekVivid, Inc</v>
       </c>
       <c r="C5" t="str">
-        <v>East Hampstead, NH (On-site)  13 hours ago</v>
+        <v>Tewksbury, MA Hybrid 1 hour ago</v>
       </c>
       <c r="D5" t="str">
-        <v>0 applicants</v>
+        <v>6 applicants</v>
       </c>
       <c r="E5" t="str">
-        <v>https://hannaford.careerswithus.com/jobs/?ad=327841_external_USA-NH-East-Hampstead_762023&amp;v=hannafordrms&amp;location=e-hampstead&amp;category=retail-operations&amp;title=pt-center-store-associate-days-and-weekend-availability&amp;utm_source=Linkedin</v>
+        <v>https://tekvivid.oorwin.com/careers/index.html#/job/e26973e6ee8ab9cd8cb3f207d1b90f00d2669eff?source=linkedin_free&amp;postedby=16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Front End Engineer I (Remote)</v>
+        <v>Software Engineer (Front-End)-Minneapolis, MN: 23-01822</v>
       </c>
       <c r="B6" t="str">
-        <v>American Specialty Health</v>
+        <v>Akraya, Inc.</v>
       </c>
       <c r="C6" t="str">
-        <v>United States (Remote) Reposted  15 minutes ago</v>
+        <v>Boston, MA 12 hours ago</v>
       </c>
       <c r="D6" t="str">
-        <v>18 applicants</v>
+        <v>7 applicants</v>
       </c>
       <c r="E6" t="str">
-        <v>https://jobs.jobvite.com/ashcompanies/job/oKZvnfwl</v>
+        <v>https://www2.jobdiva.com/portal/?a=vmjdnwvuqk8ziib1dp1dwwtj5lmlhe03a7vhen21vtdgmiqsu14lwy7xz479eb4w&amp;jobid=20120600#/jobs/20120600?compid=0&amp;SearchString=&amp;StatesString=&amp;id=20120600&amp;source=linkedin.com</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Customer Experience Designer</v>
+        <v>Store Associate, PT - Boston</v>
       </c>
       <c r="B7" t="str">
-        <v>Breezeline</v>
+        <v>Nike</v>
       </c>
       <c r="C7" t="str">
-        <v>Concord, NH (Remote) Reposted  9 hours ago</v>
+        <v>Boston, MA 1 day ago</v>
       </c>
       <c r="D7" t="str">
-        <v>131 applicants</v>
+        <v>2 applicants</v>
       </c>
       <c r="E7" t="str">
-        <v>https://cogeco.wd3.myworkdayjobs.com/en-US/Cogeco_Careers/job/Quincy-MA/Customer-Journey-Manager_JR5976?source=LinkedIn</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Content Management System Back End Developer|| Remote</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Dice</v>
-      </c>
-      <c r="C8" t="str">
-        <v>United States (Remote) Reposted  5 hours ago</v>
-      </c>
-      <c r="D8" t="str">
-        <v>14 applicants</v>
-      </c>
-      <c r="E8" t="str">
-        <v>https://www.dice.com/job-detail/96555968-7e9e-4a9d-b7ac-1f7ad8475d3a?src=32&amp;utm_source=appcast&amp;utm_medium=aggregator&amp;utm_campaign=linkedin-dice-paid&amp;utm_term=Paradigm%20Infotech&amp;utm_content=vp-linkedin-slots_remote_slots&amp;_ccid=1688762495285rg2pue0ci</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Remote Full Stack Software Engineer</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Actalent</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Nashua, NH (Remote)  1 day ago</v>
-      </c>
-      <c r="D9" t="str">
-        <v>38 applicants</v>
-      </c>
-      <c r="E9" t="str">
-        <v>https://careers.actalentservices.com/us/en/job/JP-003885791/Remote-Full-Stack-Software-Engineer?utm_source=Recruitics&amp;utm_medium=equest&amp;s_id=4106&amp;icid=linkedin_recruitics&amp;rx_campaign=Linkedin1&amp;rx_ch=connector&amp;rx_group=125337&amp;rx_job=JP-003885791&amp;rx_medium=post&amp;rx_r=none&amp;rx_source=Linkedin&amp;rx_ts=20230706T184803Z&amp;rx_vp=slots&amp;rx_viewer=e508ea1e1d0611eebb9945f346c91b891b1be452dc824d51ad02afe4fdaf73e4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Remote:- NodeJs/AWS Developer</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Dice</v>
-      </c>
-      <c r="C10" t="str">
-        <v>United States (Remote)  11 hours ago</v>
-      </c>
-      <c r="D10" t="str">
-        <v>50 applicants</v>
-      </c>
-      <c r="E10" t="str">
-        <v>https://www.dice.com/job-detail/0ed92047-54d3-47e8-b8f5-803b48ec9740?src=32&amp;utm_source=appcast&amp;utm_medium=aggregator&amp;utm_campaign=linkedin-dice-paid&amp;utm_term=Corporate%20Biz%20Solutions%20Inc&amp;utm_content=vp-linkedin-slots_most-recent&amp;_ccid=1688762495285rg2pue0ci</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Remote:- NodeJs/AWS Developer</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Dice</v>
-      </c>
-      <c r="C11" t="str">
-        <v>United States (Remote)  11 hours ago</v>
-      </c>
-      <c r="D11" t="str">
-        <v>50 applicants</v>
-      </c>
-      <c r="E11" t="str">
-        <v>https://www.dice.com/job-detail/0ed92047-54d3-47e8-b8f5-803b48ec9740?src=32&amp;utm_source=appcast&amp;utm_medium=aggregator&amp;utm_campaign=linkedin-dice-paid&amp;utm_term=Corporate%20Biz%20Solutions%20Inc&amp;utm_content=vp-linkedin-slots_most-recent&amp;_ccid=1688762495285rg2pue0ci</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Frontend Typescript Developer</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Philotimo-HR</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Greenland, NH (Remote)  7 hours ago</v>
-      </c>
-      <c r="D12" t="str">
-        <v>1 applicant</v>
-      </c>
-      <c r="E12" t="str">
-        <v>https://philotimo.snaphunt.com/job/M34MABCZAR-GL-77?source=linkedin</v>
+        <v>https://jobs.nike.com/job/R-136?source=BY_LinkedIn_OrganicFeed</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
   </ignoredErrors>
 </worksheet>
 </file>